--- a/output.xlsx
+++ b/output.xlsx
@@ -12,24 +12,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>matrix1</t>
-  </si>
-  <si>
-    <t>matrix2</t>
-  </si>
-  <si>
-    <t>multiply</t>
-  </si>
-  <si>
-    <t>[[1, 1, 1], [1, 1, 1], [1, 1, 1]]</t>
-  </si>
-  <si>
-    <t>[[1, 1, 1], [1, 2, 3], [4, 5, 6]]</t>
-  </si>
-  <si>
-    <t>[[6, 8, 10], [6, 8, 10], [6, 8, 10]]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+  <si>
+    <t>stud_name</t>
+  </si>
+  <si>
+    <t>stud_age</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>1200000</t>
+  </si>
+  <si>
+    <t>fdgfd</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Artur</t>
+  </si>
+  <si>
+    <t>10000000</t>
+  </si>
+  <si>
+    <t>petya</t>
+  </si>
+  <si>
+    <t>senya</t>
   </si>
 </sst>
 </file>
@@ -103,7 +124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -131,6 +152,61 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output.xlsx
+++ b/output.xlsx
@@ -12,45 +12,189 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
-  <si>
-    <t>stud_name</t>
-  </si>
-  <si>
-    <t>stud_age</t>
-  </si>
-  <si>
-    <t>salary</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>1200000</t>
-  </si>
-  <si>
-    <t>fdgfd</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Artur</t>
-  </si>
-  <si>
-    <t>10000000</t>
-  </si>
-  <si>
-    <t>petya</t>
-  </si>
-  <si>
-    <t>senya</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>string_reverse</t>
+  </si>
+  <si>
+    <t>string_merge</t>
+  </si>
+  <si>
+    <t>lala</t>
+  </si>
+  <si>
+    <t>lola</t>
+  </si>
+  <si>
+    <t>lakak</t>
+  </si>
+  <si>
+    <t>bobobfgfg</t>
+  </si>
+  <si>
+    <t>dfgfdgfd</t>
+  </si>
+  <si>
+    <t>fdgdfgdsafgfsdg</t>
+  </si>
+  <si>
+    <t>dfgdfg</t>
+  </si>
+  <si>
+    <t>dfgdfgdfg</t>
+  </si>
+  <si>
+    <t>sdfsdflkl</t>
+  </si>
+  <si>
+    <t>oooooolllll</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>54321</t>
+  </si>
+  <si>
+    <t>1234513579</t>
+  </si>
+  <si>
+    <t>13579</t>
+  </si>
+  <si>
+    <t>97531</t>
+  </si>
+  <si>
+    <t>fdsyhgrsfdgh</t>
+  </si>
+  <si>
+    <t>fgdhfdghfdh</t>
+  </si>
+  <si>
+    <t>gfhdhfdgh</t>
+  </si>
+  <si>
+    <t>gfdhfdghfgdh</t>
+  </si>
+  <si>
+    <t>fdgsgdfsg</t>
+  </si>
+  <si>
+    <t>ergreerg</t>
+  </si>
+  <si>
+    <t>fdgdsfg</t>
+  </si>
+  <si>
+    <t>hththth</t>
+  </si>
+  <si>
+    <t>12121</t>
+  </si>
+  <si>
+    <t>56565</t>
+  </si>
+  <si>
+    <t>lolol</t>
+  </si>
+  <si>
+    <t>lololkakaka</t>
+  </si>
+  <si>
+    <t>kakaka</t>
+  </si>
+  <si>
+    <t>lalalal1</t>
+  </si>
+  <si>
+    <t>lalalall2</t>
+  </si>
+  <si>
+    <t>papapapppp</t>
+  </si>
+  <si>
+    <t>mamammammmm</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaab</t>
+  </si>
+  <si>
+    <t>baaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaabbbbbbbbbbbbbbba</t>
+  </si>
+  <si>
+    <t>bbbbbbbbbbbbbba</t>
+  </si>
+  <si>
+    <t>abbbbbbbbbbbbbb</t>
+  </si>
+  <si>
+    <t>potjgyhr0poeujyhgpoitredtpyht0</t>
+  </si>
+  <si>
+    <t>0thyptdertiopghyjueop0rhygjtop</t>
+  </si>
+  <si>
+    <t>potjgyhr0poeujyhgpoitredtpyht0oiutrf9iu0pgshgtrwe-</t>
+  </si>
+  <si>
+    <t>oiutrf9iu0pgshgtrwe-</t>
+  </si>
+  <si>
+    <t>-ewrtghsgp0ui9frtuio</t>
+  </si>
+  <si>
+    <t>апрапрапр</t>
+  </si>
+  <si>
+    <t>рпарпарпа</t>
+  </si>
+  <si>
+    <t>апрапрапрапрапрапрапоапро</t>
+  </si>
+  <si>
+    <t>апрапрапрапоапро</t>
+  </si>
+  <si>
+    <t>орпаопарпарпарпа</t>
+  </si>
+  <si>
+    <t>priv</t>
+  </si>
+  <si>
+    <t>virp</t>
+  </si>
+  <si>
+    <t>priv poka</t>
+  </si>
+  <si>
+    <t>poka</t>
+  </si>
+  <si>
+    <t>akop</t>
+  </si>
+  <si>
+    <t>privet</t>
+  </si>
+  <si>
+    <t>tevirp</t>
   </si>
 </sst>
 </file>
@@ -124,7 +268,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -145,67 +289,337 @@
       <c r="A2" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s" s="1">
-        <v>5</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="1">
-        <v>6</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="1">
-        <v>8</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s" s="1">
-        <v>10</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s" s="1">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="1">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s" s="1">
-        <v>6</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" t="s" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" t="s" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="C36" t="s" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="C37" t="s" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="C39" t="s" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="B40" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="C41" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
